--- a/analyse/Tableau Analyse/Tableau Analyse.xlsx
+++ b/analyse/Tableau Analyse/Tableau Analyse.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="121" documentId="11_9248CACD84F5E813E97046798E3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4F7FC3B-B2A9-4552-B76E-D74E2D609EDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13160740-0872-4D93-9321-248B2CC94A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Categorie</t>
   </si>
@@ -52,7 +52,7 @@
     <t>lang = Default</t>
   </si>
   <si>
-    <t>On souhaite cibler plutôt la France</t>
+    <t>Site construit pour la France</t>
   </si>
   <si>
     <t>Indiquer la langue du site</t>
@@ -143,13 +143,64 @@
   </si>
   <si>
     <t>ACCESIBILITE</t>
+  </si>
+  <si>
+    <t>Absence de balises sémantiques</t>
+  </si>
+  <si>
+    <t>Pas de "header", "main" ou "footer".</t>
+  </si>
+  <si>
+    <t>Absence de texte pour les liens image.</t>
+  </si>
+  <si>
+    <t>L’élément n’a aucun contenu textuel visible par les lecteurs d’écran.</t>
+  </si>
+  <si>
+    <t>Utiliser balise aria</t>
+  </si>
+  <si>
+    <t>Ajout d'une balise aria-label pour les liens images</t>
+  </si>
+  <si>
+    <t>AXE web tools</t>
+  </si>
+  <si>
+    <t>Certains éléments ont un contraste de couleur trop faible (1,6).</t>
+  </si>
+  <si>
+    <t>Le texte est trop proche de la couleur d'arrière plan.</t>
+  </si>
+  <si>
+    <t>Ratio mini: 4,5:1 idéal:  7:1</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs de texte et/ou de fond.</t>
+  </si>
+  <si>
+    <t>la hiérarchie des niveaux de titre est sémantiquement incorrecte.</t>
+  </si>
+  <si>
+    <t>Balise &lt;h3&gt; positionnée avant balise &lt;h2&gt;</t>
+  </si>
+  <si>
+    <t>Les niveaux de titre doivent s’incrémenter d’un seul niveau à la fois</t>
+  </si>
+  <si>
+    <t>Modifier l'ordre des balises H</t>
+  </si>
+  <si>
+    <t>Présence d'image ne contenant que du texte.</t>
+  </si>
+  <si>
+    <t>Problème d'affichage de cetraines images en version mobile.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +216,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +241,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,11 +323,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,18 +351,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -299,6 +368,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -648,186 +744,252 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="50.25" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A15" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
